--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2671445.754071007</v>
+        <v>-2674014.177509954</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16224155.3858959</v>
+        <v>16224155.38589589</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>355.8126253390002</v>
       </c>
       <c r="C11" t="n">
-        <v>3.578616997529152</v>
+        <v>338.3516754465272</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7618252962026</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0091537477815</v>
+        <v>355.0091537477814</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9548294172311</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0005093289731</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>267.6865480628401</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65571344844562</v>
+        <v>14.65571344844557</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26654546369549</v>
+        <v>82.26654546369542</v>
       </c>
       <c r="T11" t="n">
         <v>176.9967538151398</v>
@@ -1427,16 +1427,16 @@
         <v>224.0739556344216</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8310421456546</v>
+        <v>300.8310421456545</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3197523929327</v>
+        <v>322.3197523929326</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8098843539887</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3167223315733</v>
+        <v>117.9272929785875</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.910763857457</v>
+        <v>152.9107638574569</v>
       </c>
       <c r="C13" t="n">
         <v>140.3256047741475</v>
@@ -1537,16 +1537,16 @@
         <v>119.5127463220888</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.4998316984508</v>
       </c>
       <c r="G13" t="n">
-        <v>39.10470269723886</v>
+        <v>139.1045919345478</v>
       </c>
       <c r="H13" t="n">
         <v>117.8337985898404</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43120408535775</v>
+        <v>69.43120408535769</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.010936345567</v>
+        <v>62.01093634556695</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8478090069616</v>
+        <v>162.8478090069615</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6277329516889</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2906218811326</v>
+        <v>172.605290949509</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2164269993477</v>
+        <v>225.2164269993476</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>259.6017820121106</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7884390645568</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6634370276145</v>
+        <v>191.6634370276144</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>300.4492848375708</v>
+        <v>355.8126253390002</v>
       </c>
       <c r="C14" t="n">
         <v>338.3516754465272</v>
@@ -1613,19 +1613,19 @@
         <v>327.7618252962026</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0091537477815</v>
+        <v>355.0091537477814</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9548294172311</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0005093289731</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>267.6865480628401</v>
       </c>
       <c r="I14" t="n">
-        <v>14.6557134484456</v>
+        <v>14.65571344844565</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26654546369552</v>
       </c>
       <c r="T14" t="n">
         <v>176.9967538151398</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0739556344216</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8310421456546</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3197523929327</v>
+        <v>322.3197523929326</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>101.4204550010014</v>
       </c>
       <c r="Y14" t="n">
         <v>359.3167223315733</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,7 +1765,7 @@
         <v>152.9107638574569</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3256047741475</v>
+        <v>34.69656971337308</v>
       </c>
       <c r="D16" t="n">
         <v>121.694256693732</v>
@@ -1780,10 +1780,10 @@
         <v>139.1045919345479</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8337985898404</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43120408535773</v>
+        <v>69.43120408535776</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01093634556698</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8478090069615</v>
+        <v>162.8478090069616</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6277329516888</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>259.2906218811325</v>
       </c>
       <c r="V16" t="n">
         <v>225.2164269993476</v>
       </c>
       <c r="W16" t="n">
-        <v>40.79090094537236</v>
+        <v>259.6017820121107</v>
       </c>
       <c r="X16" t="n">
         <v>198.7884390645568</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>251.1449625042993</v>
+        <v>308.8374887204076</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3765388279347</v>
+        <v>291.3765388279346</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7866886776101</v>
+        <v>280.78668867761</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0340171291889</v>
+        <v>308.0340171291888</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9796927986386</v>
+        <v>332.9796927986385</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0253727103806</v>
+        <v>337.0253727103805</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7114114442476</v>
+        <v>141.5301749808603</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29140884510295</v>
+        <v>35.29140884510291</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0216171965473</v>
+        <v>130.0216171965472</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0988190158291</v>
+        <v>177.098819015829</v>
       </c>
       <c r="V17" t="n">
-        <v>253.855905527062</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>275.3446157743401</v>
       </c>
       <c r="X17" t="n">
         <v>295.8347477353961</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3415857129807</v>
+        <v>312.3415857129806</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9356272388644</v>
+        <v>105.9356272388643</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35046815555495</v>
+        <v>93.35046815555488</v>
       </c>
       <c r="D19" t="n">
-        <v>137.135930067765</v>
+        <v>74.7191200751394</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53760970349629</v>
+        <v>72.53760970349622</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52469507985836</v>
+        <v>71.52469507985829</v>
       </c>
       <c r="G19" t="n">
-        <v>92.12945531595534</v>
+        <v>92.12945531595527</v>
       </c>
       <c r="H19" t="n">
-        <v>70.8586619712479</v>
+        <v>70.85866197124784</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45606746676521</v>
+        <v>22.45606746676516</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03579972697445</v>
+        <v>15.03579972697442</v>
       </c>
       <c r="S19" t="n">
         <v>115.872672388369</v>
@@ -2056,7 +2056,7 @@
         <v>145.6525963330963</v>
       </c>
       <c r="U19" t="n">
-        <v>212.31548526254</v>
+        <v>212.3154852625399</v>
       </c>
       <c r="V19" t="n">
         <v>178.2412903807551</v>
@@ -2065,10 +2065,10 @@
         <v>212.6266453935181</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8133024459643</v>
+        <v>214.2301124385893</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6883004090219</v>
+        <v>144.6883004090218</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8374887204077</v>
+        <v>308.8374887204076</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3765388279347</v>
+        <v>291.3765388279346</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7866886776101</v>
+        <v>280.78668867761</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0340171291889</v>
+        <v>308.0340171291888</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9796927986386</v>
+        <v>332.9796927986385</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0253727103806</v>
+        <v>337.0253727103805</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29140884510295</v>
+        <v>35.29140884510291</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0216171965473</v>
+        <v>17.6958866503452</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0988190158291</v>
+        <v>177.098819015829</v>
       </c>
       <c r="V20" t="n">
         <v>253.855905527062</v>
@@ -2144,10 +2144,10 @@
         <v>275.3446157743401</v>
       </c>
       <c r="X20" t="n">
-        <v>183.5090171891951</v>
+        <v>295.8347477353961</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3415857129807</v>
+        <v>312.3415857129806</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9356272388644</v>
+        <v>105.9356272388643</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35046815555495</v>
+        <v>93.35046815555488</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71912007513947</v>
+        <v>74.7191200751394</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53760970349629</v>
+        <v>72.53760970349622</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52469507985836</v>
+        <v>71.52469507985829</v>
       </c>
       <c r="G22" t="n">
-        <v>92.12945531595534</v>
+        <v>92.12945531595527</v>
       </c>
       <c r="H22" t="n">
-        <v>70.8586619712479</v>
+        <v>133.2754719638728</v>
       </c>
       <c r="I22" t="n">
-        <v>84.87287745939072</v>
+        <v>22.45606746676516</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03579972697445</v>
+        <v>15.03579972697442</v>
       </c>
       <c r="S22" t="n">
         <v>115.872672388369</v>
@@ -2293,7 +2293,7 @@
         <v>145.6525963330963</v>
       </c>
       <c r="U22" t="n">
-        <v>212.31548526254</v>
+        <v>212.3154852625399</v>
       </c>
       <c r="V22" t="n">
         <v>178.2412903807551</v>
@@ -2302,10 +2302,10 @@
         <v>212.6266453935181</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8133024459643</v>
+        <v>151.8133024459642</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6883004090219</v>
+        <v>144.6883004090218</v>
       </c>
     </row>
     <row r="23">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8374887204077</v>
+        <v>308.8374887204076</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3765388279347</v>
+        <v>291.3765388279346</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7866886776101</v>
+        <v>280.78668867761</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0340171291889</v>
+        <v>308.0340171291888</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9796927986386</v>
+        <v>332.9796927986385</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0253727103806</v>
+        <v>337.0253727103805</v>
       </c>
       <c r="H23" t="n">
         <v>220.7114114442476</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29140884510295</v>
+        <v>35.29140884510291</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0216171965473</v>
+        <v>130.0216171965472</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0988190158291</v>
+        <v>177.098819015829</v>
       </c>
       <c r="V23" t="n">
         <v>253.855905527062</v>
@@ -2384,7 +2384,7 @@
         <v>295.8347477353961</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3415857129807</v>
+        <v>312.3415857129806</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9356272388644</v>
+        <v>105.9356272388643</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35046815555495</v>
+        <v>93.35046815555488</v>
       </c>
       <c r="D25" t="n">
-        <v>74.71912007513947</v>
+        <v>74.7191200751394</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53760970349629</v>
+        <v>72.53760970349622</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52469507985836</v>
+        <v>71.52469507985829</v>
       </c>
       <c r="G25" t="n">
-        <v>92.12945531595534</v>
+        <v>92.12945531595527</v>
       </c>
       <c r="H25" t="n">
-        <v>70.8586619712479</v>
+        <v>70.85866197124784</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45606746676521</v>
+        <v>22.45606746676516</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03579972697445</v>
+        <v>15.03579972697442</v>
       </c>
       <c r="S25" t="n">
-        <v>115.872672388369</v>
+        <v>178.2894823809936</v>
       </c>
       <c r="T25" t="n">
         <v>145.6525963330963</v>
       </c>
       <c r="U25" t="n">
-        <v>274.7322952551654</v>
+        <v>212.3154852625399</v>
       </c>
       <c r="V25" t="n">
         <v>178.2412903807551</v>
@@ -2539,10 +2539,10 @@
         <v>212.6266453935181</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8133024459643</v>
+        <v>151.8133024459642</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6883004090219</v>
+        <v>144.6883004090218</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124556</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145481</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
         <v>172.5738126575766</v>
@@ -2792,19 +2792,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3013,7 +3013,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y31" t="n">
         <v>171.6095167335022</v>
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,22 +3187,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
         <v>49.37728379124553</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3281,7 +3281,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3442,7 +3442,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124556</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145481</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T37" t="n">
         <v>172.5738126575766</v>
@@ -3518,7 +3518,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3679,7 +3679,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124556</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145481</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
         <v>172.5738126575766</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3916,7 +3916,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3980,16 +3980,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
         <v>247.6326277687279</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958325</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4037,10 +4037,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4153,7 +4153,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1485.588248758245</v>
+        <v>1383.143344716827</v>
       </c>
       <c r="C11" t="n">
-        <v>1481.973484114276</v>
+        <v>1041.37397557892</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.973484114276</v>
+        <v>710.3014247746753</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.378379318537</v>
+        <v>351.7063199789366</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5856223314349</v>
+        <v>351.7063199789366</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7063199789368</v>
+        <v>351.7063199789366</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31586739020946</v>
+        <v>81.31586739020925</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.508300938772</v>
+        <v>3242.508300938771</v>
       </c>
       <c r="T11" t="n">
         <v>3063.723701125499</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.386372201841</v>
+        <v>2837.38637220184</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.516632660776</v>
+        <v>2533.516632660775</v>
       </c>
       <c r="W11" t="n">
-        <v>2207.941125193167</v>
+        <v>2207.941125193166</v>
       </c>
       <c r="X11" t="n">
-        <v>2207.941125193167</v>
+        <v>1861.668514734592</v>
       </c>
       <c r="Y11" t="n">
-        <v>1844.994941019861</v>
+        <v>1742.550036978443</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
         <v>765.1517452158135</v>
@@ -5136,22 +5136,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>680.5548570002696</v>
+        <v>901.2616458242694</v>
       </c>
       <c r="C13" t="n">
-        <v>538.8118218748681</v>
+        <v>759.518610698868</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8883302650377</v>
+        <v>636.5951190890377</v>
       </c>
       <c r="E13" t="n">
-        <v>295.16838448515</v>
+        <v>515.87517330915</v>
       </c>
       <c r="F13" t="n">
-        <v>295.16838448515</v>
+        <v>396.1783736137451</v>
       </c>
       <c r="G13" t="n">
         <v>255.6686847909695</v>
@@ -5194,16 +5194,16 @@
         <v>136.6446458113327</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2867530403545</v>
+        <v>138.2867530403547</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9259401504664</v>
+        <v>368.9259401504666</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1377427601981</v>
+        <v>712.1377427601983</v>
       </c>
       <c r="M13" t="n">
         <v>1082.946792520983</v>
@@ -5218,31 +5218,31 @@
         <v>2036.248281064627</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.510581378377</v>
+        <v>2140.510581378378</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.87327193841</v>
+        <v>2077.873271938411</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.380535567741</v>
+        <v>1913.380535567743</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.807067939773</v>
+        <v>1913.380535567743</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.897348867922</v>
+        <v>1739.031756830865</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.406008464541</v>
+        <v>1511.540416427483</v>
       </c>
       <c r="W13" t="n">
-        <v>1229.406008464541</v>
+        <v>1249.316394193028</v>
       </c>
       <c r="X13" t="n">
-        <v>1028.609605369029</v>
+        <v>1249.316394193028</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.0101740280039</v>
+        <v>1055.716962852004</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2154.815404056427</v>
+        <v>1383.143344716827</v>
       </c>
       <c r="C14" t="n">
-        <v>1813.046034918521</v>
+        <v>1041.373975578921</v>
       </c>
       <c r="D14" t="n">
-        <v>1481.973484114276</v>
+        <v>710.3014247746755</v>
       </c>
       <c r="E14" t="n">
-        <v>1123.378379318537</v>
+        <v>351.7063199789367</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5856223314347</v>
+        <v>351.7063199789367</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7063199789366</v>
+        <v>351.7063199789367</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31586739020928</v>
+        <v>81.31586739020931</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5300,28 +5300,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.50830093877</v>
       </c>
       <c r="T14" t="n">
-        <v>3146.821221795899</v>
+        <v>3063.723701125497</v>
       </c>
       <c r="U14" t="n">
-        <v>3146.821221795899</v>
+        <v>2837.386372201839</v>
       </c>
       <c r="V14" t="n">
-        <v>3146.821221795899</v>
+        <v>2533.516632660774</v>
       </c>
       <c r="W14" t="n">
-        <v>2821.24571432829</v>
+        <v>2207.941125193165</v>
       </c>
       <c r="X14" t="n">
-        <v>2821.24571432829</v>
+        <v>2105.49622115175</v>
       </c>
       <c r="Y14" t="n">
-        <v>2458.299530154984</v>
+        <v>1742.550036978443</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5346,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5370,10 +5370,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>901.2616458242701</v>
+        <v>675.5416118337496</v>
       </c>
       <c r="C16" t="n">
-        <v>759.5186106988685</v>
+        <v>640.4945717192312</v>
       </c>
       <c r="D16" t="n">
-        <v>636.5951190890382</v>
+        <v>517.5710801094009</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8751733091505</v>
+        <v>396.8511343295132</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1783736137455</v>
+        <v>277.1543346341083</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6686847909695</v>
+        <v>136.6446458113327</v>
       </c>
       <c r="H16" t="n">
         <v>136.6446458113327</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2867530403545</v>
+        <v>138.2867530403544</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9259401504664</v>
+        <v>368.9259401504661</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1377427601981</v>
+        <v>712.1377427601977</v>
       </c>
       <c r="M16" t="n">
         <v>1082.946792520982</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.007173388083</v>
+        <v>1451.007173388082</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.988776469732</v>
+        <v>1776.988776469731</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.248281064627</v>
+        <v>2036.248281064626</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.510581378377</v>
+        <v>2140.510581378376</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.873271938411</v>
+        <v>2140.510581378376</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.380535567742</v>
+        <v>1976.017845007708</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.807067939773</v>
+        <v>1976.017845007708</v>
       </c>
       <c r="U16" t="n">
-        <v>1718.807067939773</v>
+        <v>1714.108125935857</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.315727536392</v>
+        <v>1486.616785532476</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.112797288541</v>
+        <v>1224.392763298021</v>
       </c>
       <c r="X16" t="n">
-        <v>1249.316394193029</v>
+        <v>1023.596360202509</v>
       </c>
       <c r="Y16" t="n">
-        <v>1055.716962852004</v>
+        <v>829.9969288614838</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.313855409962</v>
+        <v>1775.332808477247</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.994119220129</v>
+        <v>1481.013072287414</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.371201363957</v>
+        <v>1197.390154431242</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2257295162913</v>
+        <v>886.2446825835764</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8826054772626</v>
+        <v>549.9015585445476</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4529360728375</v>
+        <v>209.4718891401231</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.957933886845</v>
+        <v>3289.957933886843</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.622967021645</v>
+        <v>3158.622967021644</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.73527104606</v>
+        <v>2979.735271046059</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.315164453069</v>
+        <v>2979.735271046059</v>
       </c>
       <c r="W17" t="n">
-        <v>2723.315164453069</v>
+        <v>2701.609396526524</v>
       </c>
       <c r="X17" t="n">
-        <v>2424.492186942568</v>
+        <v>2402.786419016023</v>
       </c>
       <c r="Y17" t="n">
-        <v>2108.995635717335</v>
+        <v>2087.28986779079</v>
       </c>
     </row>
     <row r="18">
@@ -5583,22 +5583,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5607,10 +5607,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1614980085905</v>
+        <v>569.1142151877561</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8680958312623</v>
+        <v>474.820813010428</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3469543486714</v>
+        <v>399.346954348671</v>
       </c>
       <c r="E19" t="n">
-        <v>326.076641516857</v>
+        <v>326.0766415168567</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8294747695253</v>
+        <v>253.8294747695251</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7694188948229</v>
+        <v>160.7694188948228</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19501286325939</v>
+        <v>89.19501286325931</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.106871596599</v>
+        <v>1912.106871596598</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.063768174005</v>
+        <v>1795.063768174003</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.939933494109</v>
+        <v>1647.939933494108</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.479847370332</v>
+        <v>1433.47984737033</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.438139915023</v>
+        <v>1253.438139915022</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.663750628642</v>
+        <v>1038.66375062864</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3169804812029</v>
+        <v>822.2696976603684</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1671820882515</v>
+        <v>676.1198992674171</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1632.373035769308</v>
+        <v>1632.373035769307</v>
       </c>
       <c r="C20" t="n">
         <v>1338.053299579474</v>
       </c>
       <c r="D20" t="n">
-        <v>1054.430381723303</v>
+        <v>1054.430381723302</v>
       </c>
       <c r="E20" t="n">
-        <v>743.2849098756371</v>
+        <v>743.2849098756369</v>
       </c>
       <c r="F20" t="n">
         <v>406.9417858366082</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
@@ -5765,34 +5765,34 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.957933886844</v>
+        <v>3289.957933886843</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.622967021645</v>
+        <v>3272.083300906696</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.73527104606</v>
+        <v>3093.195604931112</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.315164453069</v>
+        <v>2836.775498338119</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.189289933533</v>
+        <v>2558.649623818584</v>
       </c>
       <c r="X20" t="n">
-        <v>2259.826646308084</v>
+        <v>2259.826646308083</v>
       </c>
       <c r="Y20" t="n">
         <v>1944.33009508285</v>
@@ -5820,22 +5820,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5844,10 +5844,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1614980085905</v>
+        <v>632.1614980085895</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8680958312623</v>
+        <v>537.8680958312614</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3942371695052</v>
+        <v>462.3942371695044</v>
       </c>
       <c r="E22" t="n">
-        <v>389.1239243376908</v>
+        <v>389.12392433769</v>
       </c>
       <c r="F22" t="n">
-        <v>316.8767575903591</v>
+        <v>316.8767575903584</v>
       </c>
       <c r="G22" t="n">
-        <v>223.8167017156568</v>
+        <v>223.8167017156561</v>
       </c>
       <c r="H22" t="n">
-        <v>152.2422956840932</v>
+        <v>89.19501286325931</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.106871596599</v>
+        <v>1912.106871596598</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.063768174005</v>
+        <v>1795.063768174003</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.939933494109</v>
+        <v>1647.939933494108</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.479847370332</v>
+        <v>1433.47984737033</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.438139915023</v>
+        <v>1253.438139915022</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.663750628642</v>
+        <v>1038.66375062864</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3169804812029</v>
+        <v>885.3169804812018</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1671820882515</v>
+        <v>739.1671820882505</v>
       </c>
     </row>
     <row r="23">
@@ -5972,7 +5972,7 @@
         <v>1284.236531027746</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0910591800809</v>
+        <v>973.0910591800808</v>
       </c>
       <c r="F23" t="n">
         <v>636.747935141052</v>
@@ -5981,22 +5981,22 @@
         <v>296.3182657366274</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37744609597333</v>
+        <v>73.37744609597331</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37744609597333</v>
+        <v>73.37744609597331</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2565770549988</v>
+        <v>262.2565770549986</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0759507448453</v>
+        <v>596.0759507448449</v>
       </c>
       <c r="L23" t="n">
         <v>1047.110163993254</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.043222190884</v>
+        <v>1580.642068665178</v>
       </c>
       <c r="N23" t="n">
         <v>2463.822039249666</v>
@@ -6005,22 +6005,22 @@
         <v>2966.794510129003</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.568876486182</v>
+        <v>3361.568876486181</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.855238241864</v>
+        <v>3609.855238241863</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.872304798666</v>
+        <v>3668.872304798665</v>
       </c>
       <c r="S23" t="n">
         <v>3633.22441707634</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.889450211141</v>
+        <v>3501.88945021114</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.001754235556</v>
+        <v>3323.001754235555</v>
       </c>
       <c r="V23" t="n">
         <v>3066.581647642563</v>
@@ -6057,34 +6057,34 @@
         <v>319.2497322239498</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8866320565678</v>
+        <v>182.8866320565679</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38473769443536</v>
+        <v>92.38473769443539</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37744609597333</v>
+        <v>73.37744609597331</v>
       </c>
       <c r="J24" t="n">
         <v>167.0547155865906</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3189145669378</v>
+        <v>405.3189145669376</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0170748796031</v>
+        <v>772.0170748796027</v>
       </c>
       <c r="M24" t="n">
-        <v>1219.293400101919</v>
+        <v>1219.293400101918</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816443656374</v>
+        <v>1692.816443656373</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.777723074429</v>
+        <v>2103.777723074427</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.277314550532</v>
+        <v>2414.27731455053</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.918872197131</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9795448515465</v>
+        <v>575.9795448515462</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6861426742183</v>
+        <v>481.686142674218</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2122840124613</v>
+        <v>406.212284012461</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9419711806469</v>
+        <v>332.9419711806466</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6948044333152</v>
+        <v>260.694804433315</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6347485586128</v>
+        <v>167.6347485586127</v>
       </c>
       <c r="H25" t="n">
-        <v>96.0603425270493</v>
+        <v>96.06034252704924</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37744609597333</v>
+        <v>73.37744609597331</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5000785429089</v>
+        <v>118.5000785429088</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4872614917853</v>
+        <v>322.4872614917851</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0470599402813</v>
+        <v>639.0470599402811</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2041055398304</v>
+        <v>983.2041055398299</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612482245695</v>
@@ -6163,34 +6163,34 @@
         <v>1623.942081166108</v>
       </c>
       <c r="P25" t="n">
-        <v>1856.549581599768</v>
+        <v>1856.549581599767</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.159877752283</v>
+        <v>1934.159877752282</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.972201260389</v>
+        <v>1918.972201260388</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.929097837794</v>
+        <v>1738.88181501696</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.805263157899</v>
+        <v>1591.757980337065</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.297894213288</v>
+        <v>1377.297894213287</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.25618675798</v>
+        <v>1197.256186757979</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4817974715976</v>
+        <v>982.4817974715971</v>
       </c>
       <c r="X25" t="n">
-        <v>829.135027324159</v>
+        <v>829.1350273241585</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9852289312075</v>
+        <v>682.9852289312071</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
         <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
         <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557144</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>792.1780824632714</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1243.21229571168</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486248</v>
+        <v>1776.744200383604</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.59600554503</v>
+        <v>2323.523017442386</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424367</v>
+        <v>2826.495488321722</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094415</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676534</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803186</v>
       </c>
       <c r="M27" t="n">
-        <v>1227.062870902635</v>
+        <v>1227.062870902634</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457088</v>
       </c>
       <c r="O27" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875143</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351245</v>
       </c>
       <c r="Q27" t="n">
         <v>2579.688342997847</v>
@@ -6376,19 +6376,19 @@
         <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6412,7 +6412,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6446,10 +6446,10 @@
         <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6461,22 +6461,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>393.2994530991711</v>
       </c>
       <c r="K29" t="n">
-        <v>771.2510705659141</v>
+        <v>727.1188267890174</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1178.153040037426</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486248</v>
+        <v>1711.68494470935</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.59600554503</v>
+        <v>2258.463761768132</v>
       </c>
       <c r="O29" t="n">
-        <v>2805.568476424367</v>
+        <v>2761.436232647469</v>
       </c>
       <c r="P29" t="n">
         <v>3474.791320094414</v>
@@ -6485,7 +6485,7 @@
         <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309626</v>
@@ -6503,7 +6503,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6540,22 +6540,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676534</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803186</v>
       </c>
       <c r="M30" t="n">
-        <v>1227.062870902635</v>
+        <v>1227.062870902634</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457088</v>
       </c>
       <c r="O30" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875145</v>
       </c>
       <c r="P30" t="n">
         <v>2422.046785351247</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899659</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913838</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668915</v>
@@ -6625,37 +6625,37 @@
         <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982164</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T31" t="n">
         <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467792</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6698,28 +6698,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>437.4316968760675</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>771.2510705659138</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1222.285283814322</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486248</v>
+        <v>2200.835586644151</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.59600554503</v>
+        <v>2747.614403702933</v>
       </c>
       <c r="O32" t="n">
-        <v>2805.568476424367</v>
+        <v>3250.586874582269</v>
       </c>
       <c r="P32" t="n">
-        <v>3518.923563871313</v>
+        <v>3645.361240939447</v>
       </c>
       <c r="Q32" t="n">
-        <v>3977.401766380301</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6731,16 +6731,16 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6777,25 +6777,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676534</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803186</v>
       </c>
       <c r="M33" t="n">
-        <v>1227.062870902635</v>
+        <v>1227.062870902634</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457088</v>
       </c>
       <c r="O33" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875143</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351245</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
         <v>229.7905149643393</v>
@@ -6856,16 +6856,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960316</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6874,10 +6874,10 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
         <v>2271.591606277852</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689498</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467775</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
@@ -6935,52 +6935,52 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>437.4316968760675</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659141</v>
+        <v>771.2510705659138</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1222.285283814322</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486248</v>
+        <v>1755.817188486246</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.59600554503</v>
+        <v>2302.596005545028</v>
       </c>
       <c r="O35" t="n">
-        <v>2805.568476424367</v>
+        <v>2805.568476424365</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094414</v>
+        <v>3518.923563871311</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603402</v>
+        <v>3977.401766380298</v>
       </c>
       <c r="R35" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468332</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676534</v>
       </c>
       <c r="L36" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803186</v>
       </c>
       <c r="M36" t="n">
-        <v>1227.062870902635</v>
+        <v>1227.062870902634</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457088</v>
       </c>
       <c r="O36" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875143</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351245</v>
       </c>
       <c r="Q36" t="n">
         <v>2579.688342997847</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D37" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
@@ -7093,10 +7093,10 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
         <v>786.332686498217</v>
@@ -7108,10 +7108,10 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q37" t="n">
         <v>2313.972430572251</v>
@@ -7123,7 +7123,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U37" t="n">
         <v>1711.385138644068</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="38">
@@ -7151,73 +7151,73 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>393.2994530991729</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659141</v>
+        <v>727.1188267890192</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1178.153040037428</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486248</v>
+        <v>1711.684944709352</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.59600554503</v>
+        <v>2258.463761768134</v>
       </c>
       <c r="O38" t="n">
-        <v>2805.568476424367</v>
+        <v>2761.43623264747</v>
       </c>
       <c r="P38" t="n">
-        <v>3518.923563871313</v>
+        <v>3474.791320094416</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X38" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456145</v>
       </c>
       <c r="C39" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644876</v>
       </c>
       <c r="D39" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032363</v>
       </c>
       <c r="E39" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F39" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G39" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H39" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676534</v>
       </c>
       <c r="L39" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803186</v>
       </c>
       <c r="M39" t="n">
-        <v>1227.062870902635</v>
+        <v>1227.062870902634</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457088</v>
       </c>
       <c r="O39" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875143</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351245</v>
       </c>
       <c r="Q39" t="n">
         <v>2579.688342997847</v>
@@ -7296,7 +7296,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y39" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="40">
@@ -7315,40 +7315,40 @@
         <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F40" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K40" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q40" t="n">
         <v>2313.972430572251</v>
@@ -7366,7 +7366,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W40" t="n">
         <v>1262.182746297367</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467792</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
         <v>81.14691689668915</v>
@@ -7409,52 +7409,52 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>437.4316968760676</v>
+        <v>437.4316968760675</v>
       </c>
       <c r="K41" t="n">
-        <v>771.2510705659141</v>
+        <v>907.4660419013977</v>
       </c>
       <c r="L41" t="n">
-        <v>1222.285283814323</v>
+        <v>1771.984857554752</v>
       </c>
       <c r="M41" t="n">
-        <v>1755.817188486248</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N41" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O41" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P41" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676534</v>
       </c>
       <c r="L42" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803186</v>
       </c>
       <c r="M42" t="n">
-        <v>1227.062870902635</v>
+        <v>1227.062870902634</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457088</v>
       </c>
       <c r="O42" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875143</v>
       </c>
       <c r="P42" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351245</v>
       </c>
       <c r="Q42" t="n">
         <v>2579.688342997847</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502697993</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899657</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257033</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913836</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415465</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
@@ -7567,52 +7567,52 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973139</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P43" t="n">
         <v>2189.856749167329</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T43" t="n">
         <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W43" t="n">
         <v>1262.182746297367</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347422</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519657</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689498</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467781</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557146</v>
+        <v>393.2994530991711</v>
       </c>
       <c r="K44" t="n">
-        <v>924.7493799910142</v>
+        <v>727.1188267890174</v>
       </c>
       <c r="L44" t="n">
-        <v>1375.783593239423</v>
+        <v>1178.153040037426</v>
       </c>
       <c r="M44" t="n">
-        <v>1909.315497911347</v>
+        <v>1711.68494470935</v>
       </c>
       <c r="N44" t="n">
-        <v>2475.30339983534</v>
+        <v>2258.463761768132</v>
       </c>
       <c r="O44" t="n">
-        <v>3355.268050164795</v>
+        <v>2761.436232647469</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468332</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676534</v>
       </c>
       <c r="L45" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803186</v>
       </c>
       <c r="M45" t="n">
-        <v>1227.062870902635</v>
+        <v>1227.062870902634</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457088</v>
       </c>
       <c r="O45" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875143</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351245</v>
       </c>
       <c r="Q45" t="n">
         <v>2579.688342997847</v>
@@ -7801,28 +7801,28 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960311</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982168</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350172</v>
       </c>
       <c r="N46" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q46" t="n">
         <v>2313.972430572251</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>212.1614152764231</v>
+        <v>212.1614152764221</v>
       </c>
       <c r="L5" t="n">
-        <v>225.9304893188439</v>
+        <v>225.9304893188426</v>
       </c>
       <c r="M5" t="n">
-        <v>219.401870760398</v>
+        <v>219.4018707603967</v>
       </c>
       <c r="N5" t="n">
-        <v>218.2916099030235</v>
+        <v>218.2916099030221</v>
       </c>
       <c r="O5" t="n">
-        <v>219.5965380661486</v>
+        <v>219.5965380661473</v>
       </c>
       <c r="P5" t="n">
-        <v>222.2700605111177</v>
+        <v>222.2700605111166</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>123.6869003357293</v>
+        <v>123.686900335729</v>
       </c>
       <c r="K6" t="n">
-        <v>132.4563458344806</v>
+        <v>132.4563458344799</v>
       </c>
       <c r="L6" t="n">
-        <v>131.3134574915378</v>
+        <v>131.313457491537</v>
       </c>
       <c r="M6" t="n">
-        <v>133.6842191437698</v>
+        <v>133.6842191437688</v>
       </c>
       <c r="N6" t="n">
-        <v>122.6682558511132</v>
+        <v>122.6682558511121</v>
       </c>
       <c r="O6" t="n">
-        <v>134.6617264891797</v>
+        <v>134.6617264891787</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6062572357708</v>
+        <v>127.60625723577</v>
       </c>
       <c r="Q6" t="n">
-        <v>135.7248343369105</v>
+        <v>135.72483433691</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8377,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>130.7280129970309</v>
+        <v>130.7280129970304</v>
       </c>
       <c r="M7" t="n">
-        <v>134.543165321606</v>
+        <v>134.5431653216055</v>
       </c>
       <c r="N7" t="n">
-        <v>123.4071347145261</v>
+        <v>123.4071347145256</v>
       </c>
       <c r="O7" t="n">
-        <v>134.5047345663801</v>
+        <v>134.5047345663796</v>
       </c>
       <c r="P7" t="n">
-        <v>134.3465531299171</v>
+        <v>134.3465531299167</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>339.7991449754602</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>339.799144975461</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>190.2350110279907</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>277.2206841544144</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5185911550067</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>277.2206841544135</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>40.02214132148842</v>
       </c>
       <c r="R32" t="n">
-        <v>21.13839585591369</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>277.2206841544135</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>21.1383958559161</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5185911550086</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>167.736966642836</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11060,10 +11060,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>137.5908801368525</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>277.220684154413</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5185911550067</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11306,19 +11306,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>19.40311602546524</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.2404088827751</v>
+        <v>15.24040888277509</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>334.7730584489981</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7618252962026</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.9548294172311</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>384.0005093289731</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8098843539887</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>241.3894293529857</v>
       </c>
     </row>
     <row r="12">
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.4998316984509</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>99.99988923730905</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>192.6277329516888</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>86.68533093162353</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6017820121107</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>198.7884390645568</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>55.36334050142949</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,10 +23504,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.9548294172311</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>384.0005093289731</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26654546369548</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0739556344216</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8310421456546</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8098843539887</v>
+        <v>241.3894293529872</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>105.6290350607744</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8337985898404</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01093634556702</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>192.6277329516888</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2906218811326</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>218.8108810667383</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>57.69252621610843</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>79.18123646338725</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23789,10 +23789,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>253.855905527062</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3446157743401</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7114114442476</v>
+        <v>220.7114114442475</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>112.325730546202</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>112.325730546201</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1249980.316870024</v>
+        <v>1249980.316870023</v>
       </c>
     </row>
     <row r="7">
@@ -26314,7 +26314,7 @@
         <v>40963.81693585191</v>
       </c>
       <c r="C2" t="n">
-        <v>40964.06500380871</v>
+        <v>40964.06500380868</v>
       </c>
       <c r="D2" t="n">
         <v>40964.37727602343</v>
@@ -26323,16 +26323,16 @@
         <v>36477.09451264195</v>
       </c>
       <c r="F2" t="n">
-        <v>36477.09451264195</v>
+        <v>36477.09451264194</v>
       </c>
       <c r="G2" t="n">
-        <v>39726.60066809216</v>
+        <v>39726.60066809215</v>
       </c>
       <c r="H2" t="n">
         <v>39726.60066809215</v>
       </c>
       <c r="I2" t="n">
-        <v>41052.08849321412</v>
+        <v>41052.08849321413</v>
       </c>
       <c r="J2" t="n">
         <v>41052.08849321417</v>
@@ -26344,16 +26344,16 @@
         <v>41052.08849321416</v>
       </c>
       <c r="M2" t="n">
+        <v>41052.08849321419</v>
+      </c>
+      <c r="N2" t="n">
+        <v>41052.08849321416</v>
+      </c>
+      <c r="O2" t="n">
         <v>41052.08849321417</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>41052.08849321419</v>
-      </c>
-      <c r="O2" t="n">
-        <v>41052.08849321418</v>
-      </c>
-      <c r="P2" t="n">
-        <v>41052.08849321415</v>
       </c>
     </row>
     <row r="3">
@@ -26366,10 +26366,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14118.19859945433</v>
+        <v>14118.19859945609</v>
       </c>
       <c r="D3" t="n">
-        <v>16714.64353072206</v>
+        <v>16714.6435307204</v>
       </c>
       <c r="E3" t="n">
         <v>1117168.84147192</v>
@@ -26378,25 +26378,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487408</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.44161905845</v>
+        <v>22820.44161905848</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.44272728121</v>
+        <v>25410.44272728124</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.568292073</v>
+        <v>207188.5682920729</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>430898.5094426759</v>
       </c>
       <c r="C4" t="n">
-        <v>426739.1543200267</v>
+        <v>426739.1543200262</v>
       </c>
       <c r="D4" t="n">
         <v>421594.991239873</v>
       </c>
       <c r="E4" t="n">
-        <v>37585.46710210905</v>
+        <v>37585.46710210911</v>
       </c>
       <c r="F4" t="n">
-        <v>37585.46710210906</v>
+        <v>37585.46710210907</v>
       </c>
       <c r="G4" t="n">
-        <v>74613.22686521035</v>
+        <v>74613.22686521045</v>
       </c>
       <c r="H4" t="n">
-        <v>74613.22686521034</v>
+        <v>74613.22686521045</v>
       </c>
       <c r="I4" t="n">
-        <v>85473.00365913907</v>
+        <v>85473.00365913917</v>
       </c>
       <c r="J4" t="n">
-        <v>80755.36360646592</v>
+        <v>80755.36360646604</v>
       </c>
       <c r="K4" t="n">
-        <v>80755.36360646592</v>
+        <v>80755.36360646604</v>
       </c>
       <c r="L4" t="n">
-        <v>80755.36360646592</v>
+        <v>80755.36360646604</v>
       </c>
       <c r="M4" t="n">
-        <v>80755.36360646592</v>
+        <v>80755.36360646601</v>
       </c>
       <c r="N4" t="n">
-        <v>80755.36360646592</v>
+        <v>80755.36360646604</v>
       </c>
       <c r="O4" t="n">
-        <v>80755.36360646592</v>
+        <v>80755.36360646601</v>
       </c>
       <c r="P4" t="n">
-        <v>80755.36360646598</v>
+        <v>80755.36360646601</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>33965.59259112993</v>
+        <v>33965.59259112998</v>
       </c>
       <c r="D5" t="n">
         <v>34391.06348367693</v>
@@ -26479,28 +26479,28 @@
         <v>76569.58029657604</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.58029657604</v>
+        <v>76569.58029657601</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.7330569645</v>
+        <v>80518.73305696447</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.7330569645</v>
+        <v>80518.73305696447</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.38360144483</v>
+        <v>85736.3836014448</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="N5" t="n">
         <v>89377.94167480612</v>
@@ -26509,7 +26509,7 @@
         <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-423562.2925068239</v>
+        <v>-423566.706084692</v>
       </c>
       <c r="C6" t="n">
-        <v>-433858.8805068022</v>
+        <v>-433863.2816812738</v>
       </c>
       <c r="D6" t="n">
-        <v>-431736.3209782486</v>
+        <v>-431740.7065391064</v>
       </c>
       <c r="E6" t="n">
-        <v>-1194846.794357963</v>
+        <v>-1195075.544056992</v>
       </c>
       <c r="F6" t="n">
-        <v>-77677.95288604315</v>
+        <v>-77906.70258507173</v>
       </c>
       <c r="G6" t="n">
-        <v>-152985.4685489567</v>
+        <v>-153051.7429402129</v>
       </c>
       <c r="H6" t="n">
-        <v>-115405.3592540827</v>
+        <v>-115471.6336453389</v>
       </c>
       <c r="I6" t="n">
-        <v>-152977.7403864282</v>
+        <v>-152977.7403864283</v>
       </c>
       <c r="J6" t="n">
-        <v>-154491.6595153391</v>
+        <v>-154491.6595153392</v>
       </c>
       <c r="K6" t="n">
-        <v>-129081.2167880579</v>
+        <v>-129081.216788058</v>
       </c>
       <c r="L6" t="n">
-        <v>-166661.3260829319</v>
+        <v>-166661.3260829321</v>
       </c>
       <c r="M6" t="n">
         <v>-336269.7850801309</v>
       </c>
       <c r="N6" t="n">
-        <v>-129081.2167880578</v>
+        <v>-129081.216788058</v>
       </c>
       <c r="O6" t="n">
-        <v>-129081.2167880578</v>
+        <v>-129081.2167880579</v>
       </c>
       <c r="P6" t="n">
-        <v>-129081.216788058</v>
+        <v>-129081.2167880579</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="F2" t="n">
         <v>26.92121632448035</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953848</v>
+        <v>15.5042472995404</v>
       </c>
       <c r="D3" t="n">
         <v>35.02126071912533</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2180761996666</v>
+        <v>917.2180761996664</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26823,13 +26823,13 @@
         <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="O4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-3.776717873373372e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953848</v>
+        <v>15.5042472995404</v>
       </c>
       <c r="D3" t="n">
-        <v>19.51701341958685</v>
+        <v>19.51701341958492</v>
       </c>
       <c r="E3" t="n">
         <v>1054.755439874173</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.81662079737384</v>
+        <v>85.81662079737396</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11838500894805</v>
+        <v>97.11838500894817</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27631,13 +27631,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.8364790096108</v>
+        <v>338.8364790096107</v>
       </c>
       <c r="I5" t="n">
-        <v>208.0729649713488</v>
+        <v>208.0729649713485</v>
       </c>
       <c r="J5" t="n">
-        <v>6.659224593851899</v>
+        <v>6.659224593851242</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,16 +27658,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.259908116783858</v>
+        <v>3.259908116783022</v>
       </c>
       <c r="R5" t="n">
-        <v>145.9538669886688</v>
+        <v>145.9538669886683</v>
       </c>
       <c r="S5" t="n">
-        <v>207.5997558763429</v>
+        <v>207.5997558763427</v>
       </c>
       <c r="T5" t="n">
-        <v>222.8230059759757</v>
+        <v>222.8230059759756</v>
       </c>
       <c r="U5" t="n">
         <v>251.3406666172477</v>
@@ -27713,7 +27713,7 @@
         <v>111.9133654388211</v>
       </c>
       <c r="I6" t="n">
-        <v>88.24844095234548</v>
+        <v>88.24844095234533</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>98.08728580573495</v>
+        <v>98.08728580573469</v>
       </c>
       <c r="S6" t="n">
-        <v>171.0637325442761</v>
+        <v>171.063732544276</v>
       </c>
       <c r="T6" t="n">
         <v>200.0303097960643</v>
@@ -27792,13 +27792,13 @@
         <v>161.9785962146699</v>
       </c>
       <c r="I7" t="n">
-        <v>154.609687221244</v>
+        <v>154.6096872212439</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38251566997587</v>
+        <v>91.38251566997563</v>
       </c>
       <c r="K7" t="n">
-        <v>19.02122493263528</v>
+        <v>19.02122493263488</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>83.82090190946407</v>
+        <v>83.82090190946379</v>
       </c>
       <c r="R7" t="n">
-        <v>176.0362765059643</v>
+        <v>176.0362765059641</v>
       </c>
       <c r="S7" t="n">
-        <v>223.5293580029851</v>
+        <v>223.529358002985</v>
       </c>
       <c r="T7" t="n">
         <v>227.8261304736785</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
     </row>
     <row r="14">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="D19" t="n">
-        <v>11.47954295044738</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89635294307288</v>
+        <v>11.47954295044786</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89635294307288</v>
+        <v>11.47954295044795</v>
       </c>
       <c r="I22" t="n">
-        <v>11.47954295044737</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89635294307288</v>
+        <v>11.47954295044829</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="U25" t="n">
-        <v>11.47954295044752</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307296</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859311</v>
       </c>
       <c r="R37" t="n">
         <v>46.97513661859256</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859244</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>46.97513661859258</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30657,7 +30657,7 @@
         <v>46.97513661859258</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859188</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q43" t="n">
         <v>46.97513661859258</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06232863235995362</v>
+        <v>0.06232863235996136</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6383231061563752</v>
+        <v>0.6383231061564545</v>
       </c>
       <c r="I5" t="n">
-        <v>2.402924599057114</v>
+        <v>2.402924599057413</v>
       </c>
       <c r="J5" t="n">
-        <v>5.290064760760618</v>
+        <v>5.290064760761275</v>
       </c>
       <c r="K5" t="n">
-        <v>7.928435768557457</v>
+        <v>7.928435768558441</v>
       </c>
       <c r="L5" t="n">
-        <v>9.835925651143389</v>
+        <v>9.835925651144612</v>
       </c>
       <c r="M5" t="n">
-        <v>10.94436246687471</v>
+        <v>10.94436246687607</v>
       </c>
       <c r="N5" t="n">
-        <v>11.12145369356743</v>
+        <v>11.12145369356882</v>
       </c>
       <c r="O5" t="n">
-        <v>10.50167335553814</v>
+        <v>10.50167335553945</v>
       </c>
       <c r="P5" t="n">
-        <v>8.962935244151788</v>
+        <v>8.9629352441529</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.730791097760946</v>
+        <v>6.730791097761783</v>
       </c>
       <c r="R5" t="n">
-        <v>3.91525095248094</v>
+        <v>3.915250952481427</v>
       </c>
       <c r="S5" t="n">
-        <v>1.420313709902445</v>
+        <v>1.420313709902621</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2728435881556971</v>
+        <v>0.272843588155731</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004986290588796289</v>
+        <v>0.004986290588796908</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03334875834240351</v>
+        <v>0.03334875834240766</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3220787976753182</v>
+        <v>0.3220787976753582</v>
       </c>
       <c r="I6" t="n">
-        <v>1.148191899069595</v>
+        <v>1.148191899069738</v>
       </c>
       <c r="J6" t="n">
-        <v>3.150726330937343</v>
+        <v>3.150726330937734</v>
       </c>
       <c r="K6" t="n">
-        <v>5.385093139878379</v>
+        <v>5.385093139879047</v>
       </c>
       <c r="L6" t="n">
-        <v>7.240922288336343</v>
+        <v>7.240922288337241</v>
       </c>
       <c r="M6" t="n">
-        <v>8.449814778248468</v>
+        <v>8.449814778249518</v>
       </c>
       <c r="N6" t="n">
-        <v>8.673456232220115</v>
+        <v>8.673456232221191</v>
       </c>
       <c r="O6" t="n">
-        <v>7.934517955264751</v>
+        <v>7.934517955265737</v>
       </c>
       <c r="P6" t="n">
-        <v>6.368150178559493</v>
+        <v>6.368150178560284</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.256939749111018</v>
+        <v>4.256939749111546</v>
       </c>
       <c r="R6" t="n">
-        <v>2.070548346908177</v>
+        <v>2.070548346908434</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6194385595617491</v>
+        <v>0.619438559561826</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1344188987573194</v>
+        <v>0.1344188987573361</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002193997259368653</v>
+        <v>0.002193997259368926</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02795847873687266</v>
+        <v>0.02795847873687613</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2485762927696498</v>
+        <v>0.2485762927696807</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8407877060143162</v>
+        <v>0.8407877060144205</v>
       </c>
       <c r="J7" t="n">
-        <v>1.976664446696897</v>
+        <v>1.976664446697142</v>
       </c>
       <c r="K7" t="n">
-        <v>3.248266893247568</v>
+        <v>3.248266893247971</v>
       </c>
       <c r="L7" t="n">
-        <v>4.156663284207414</v>
+        <v>4.15666328420793</v>
       </c>
       <c r="M7" t="n">
-        <v>4.382618625999047</v>
+        <v>4.382618625999592</v>
       </c>
       <c r="N7" t="n">
-        <v>4.278409750707071</v>
+        <v>4.278409750707602</v>
       </c>
       <c r="O7" t="n">
-        <v>3.951803885462693</v>
+        <v>3.951803885463184</v>
       </c>
       <c r="P7" t="n">
-        <v>3.381450919230488</v>
+        <v>3.381450919230908</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.34114134223031</v>
+        <v>2.341141342230601</v>
       </c>
       <c r="R7" t="n">
-        <v>1.257114871205201</v>
+        <v>1.257114871205357</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4872400339871351</v>
+        <v>0.4872400339871957</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1194589546030013</v>
+        <v>0.1194589546030162</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001525007931102147</v>
+        <v>0.001525007931102336</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H24" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987504</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q25" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H27" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987504</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q28" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H30" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970266</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q31" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H33" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987504</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q34" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H36" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987504</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q37" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H39" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987504</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q40" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987504</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987504</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49963293754656</v>
+        <v>72.49963293754665</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9688758687999</v>
+        <v>232.9688758688</v>
       </c>
       <c r="L13" t="n">
         <v>346.6785884946785</v>
@@ -35577,16 +35577,16 @@
         <v>374.5545957179642</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7781624920204</v>
+        <v>371.7781624920205</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2743465471201</v>
+        <v>329.2743465471202</v>
       </c>
       <c r="P13" t="n">
         <v>261.8782874695908</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.315454862374</v>
+        <v>105.3154548623741</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49963293754658</v>
+        <v>72.49963293754652</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9688758687999</v>
+        <v>232.9688758687998</v>
       </c>
       <c r="L16" t="n">
         <v>346.6785884946784</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5545957179642</v>
+        <v>374.554595717964</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7781624920204</v>
+        <v>371.7781624920203</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2743465471201</v>
+        <v>329.27434654712</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8782874695908</v>
+        <v>261.8782874695906</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.315454862374</v>
+        <v>105.3154548623739</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302276</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302276</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M23" t="n">
-        <v>878.720260805687</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>892.100980388372</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013295</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127288</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>527.4262975833909</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P26" t="n">
-        <v>675.9826703737863</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127288</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165873</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>315.3055921237191</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P29" t="n">
-        <v>675.9826703737854</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525822</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36993,10 +36993,10 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407862</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230589</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>290.8164461252077</v>
       </c>
       <c r="R32" t="n">
-        <v>80.75159439813847</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127288</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407862</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P35" t="n">
-        <v>675.9826703737854</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>80.75159439814077</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127288</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165873</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564867</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>315.305592123721</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>418.5312714465555</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127288</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165873</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407862</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>474.7821666922528</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427823</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P41" t="n">
-        <v>675.9826703737849</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127288</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637023</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>315.3055921237191</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N44" t="n">
-        <v>571.7049514383767</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127288</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861323</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
